--- a/biology/Médecine/Ovadia_ben_Jacob_Sforno/Ovadia_ben_Jacob_Sforno.xlsx
+++ b/biology/Médecine/Ovadia_ben_Jacob_Sforno/Ovadia_ben_Jacob_Sforno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ovadia Sforno (hébreu : עובדיה ספורנו, Cesena, Italie, 1470- Bologne, 1550) est un rabbin, médecin et philosophe, considéré comme l'un des plus importants exégètes juifs de la Bible, et l'une des grandes figures du judaïsme italien à l'époque de la Renaissance italienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Figure du judaïsme médiéval italien, Ovadia ben Jacob Sforno vécut une période où les relations se troublèrent entre les Juifs et les Gentils d’Italie, suite à l'Inquisition espagnole, à l’établissement de lois antijuives en Italie et à l’inimitié papale.
 Il reçut une éducation religieuse et laïque, s’inscrivit à l’université de Rome, où il étudia la philosophie, les mathématiques et la médecine. Il fut diplômé médecin en 1501 et s’installa ensuite à Bologne, où il fonda une yeshiva.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'il fût considéré comme une autorité halakhique d’Italie, sa célébrité est principalement due à son commentaire biblique, connu par la postérité sous le nom du « Sforno ».
 Ses commentaires tentent d’apporter une explication directe au Texte. Néanmoins, on trouve trace de ses intérêts pour la politique et la science, particulièrement celle attenant à la médecine, dont la biologie.
